--- a/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
+++ b/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3AF213-CE25-4E1D-A078-A399BDD32587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A3F78-2F6B-4F43-A2A2-621E80568F33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="2655" windowWidth="23235" windowHeight="10440" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t>Ref.</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>[%/year]</t>
+  </si>
+  <si>
+    <t>CostInvest</t>
+  </si>
+  <si>
+    <t>[M$/GW]</t>
   </si>
 </sst>
 </file>
@@ -281,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,6 +337,7 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:H5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2DE492-BD1A-44A2-AB64-20C476A17F08}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,7 +1534,7 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1661,6 +1674,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>1884</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="13">
+        <f>E6*0.8</f>
+        <v>1507.2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>E6*1.2</f>
+        <v>2260.7999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>2474</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G9" si="0">E7*0.8</f>
+        <v>1979.2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H9" si="1">E7*1.2</f>
+        <v>2968.7999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8">
+        <v>1457</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1165.6000000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1748.3999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6874</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5499.2000000000007</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>8248.7999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
+++ b/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A3F78-2F6B-4F43-A2A2-621E80568F33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905B74E-BE24-412D-8B92-080FEDA9818B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="2655" windowWidth="23235" windowHeight="10440" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
   <si>
     <t>Ref.</t>
   </si>
@@ -255,6 +255,69 @@
   </si>
   <si>
     <t>[M$/GW]</t>
+  </si>
+  <si>
+    <t>EC_PUMP</t>
+  </si>
+  <si>
+    <t>EC_BATT</t>
+  </si>
+  <si>
+    <t>EC_BIO</t>
+  </si>
+  <si>
+    <t>EC_COAL</t>
+  </si>
+  <si>
+    <t>EC_OIL_CC</t>
+  </si>
+  <si>
+    <t>EC_NG_CC</t>
+  </si>
+  <si>
+    <t>EC_NG_OC</t>
+  </si>
+  <si>
+    <t>EC_SOLPV</t>
+  </si>
+  <si>
+    <t>EC_WIND</t>
+  </si>
+  <si>
+    <t>ED_BATT</t>
+  </si>
+  <si>
+    <t>ED_SOLPV</t>
+  </si>
+  <si>
+    <t>EF_WIND</t>
+  </si>
+  <si>
+    <t>20% range</t>
+  </si>
+  <si>
+    <t>assm.</t>
+  </si>
+  <si>
+    <t>ATB</t>
+  </si>
+  <si>
+    <t>CostFixedIncr</t>
+  </si>
+  <si>
+    <t>EX_SOLPV</t>
+  </si>
+  <si>
+    <t>EX_WIND</t>
+  </si>
+  <si>
+    <t>CostVariable</t>
+  </si>
+  <si>
+    <t>CostFixed</t>
+  </si>
+  <si>
+    <t>Fuel cost uncertainty?</t>
   </si>
 </sst>
 </file>
@@ -287,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +369,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -319,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +413,9 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1522,16 +1600,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2DE492-BD1A-44A2-AB64-20C476A17F08}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -1575,25 +1653,31 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>-3.15</v>
+        <v>2474</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>-5</v>
+        <f t="shared" ref="G2:G4" si="0">E2*0.8</f>
+        <v>1979.2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f t="shared" ref="H2:H4" si="1">E2*1.2</f>
+        <v>2968.7999999999997</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1601,25 +1685,31 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3">
-        <v>-0.89</v>
+        <v>1457</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>-5</v>
+        <f t="shared" si="0"/>
+        <v>1165.6000000000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1748.3999999999999</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1627,164 +1717,1011 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6874</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5499.2000000000007</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>8248.7999999999993</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>-5</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13">
+        <v>-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>-1.97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="H6">
+        <v>-0.61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>-0.53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>-0.63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>-0.4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>-0.4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>-0.41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>-1.86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>-3</v>
+      </c>
+      <c r="H12">
+        <v>-1.08</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>-1.7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>-2.88</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="15">
+        <v>-1.97</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="H14" s="15">
+        <v>-0.61</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="14">
+        <v>-2.23</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="14">
+        <v>-3.45</v>
+      </c>
+      <c r="H15" s="14">
+        <v>-1.17</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="14">
+        <v>-2.14</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="14">
+        <v>-3.42</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>-3.15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="H17">
+        <v>-2.06</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>-0.89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5">
         <v>-0.81</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="13">
         <v>-5</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G23" si="2">E21*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H23" si="3">E21*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>-1.86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>-3</v>
+      </c>
+      <c r="H24">
+        <v>-1.08</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25">
+        <v>-1.88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>-3.25</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>-1.97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="H26">
+        <v>-0.61</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>-1.86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>-3</v>
+      </c>
+      <c r="H27">
+        <v>-1.08</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28">
+        <v>-1.88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>-3.25</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>-1.97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="H29">
+        <v>-0.61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>-2.23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>-3.45</v>
+      </c>
+      <c r="H30">
+        <v>-1.17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>-3.39</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6">
-        <v>1884</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="13">
-        <f>E6*0.8</f>
-        <v>1507.2</v>
-      </c>
-      <c r="H6" s="13">
-        <f>E6*1.2</f>
-        <v>2260.7999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>-3.15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="H32">
+        <v>-2.06</v>
+      </c>
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7">
-        <v>2474</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G9" si="0">E7*0.8</f>
-        <v>1979.2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H9" si="1">E7*1.2</f>
-        <v>2968.7999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>-5</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8">
-        <v>1457</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1165.6000000000001</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>1748.3999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>-5</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="5">
-        <v>6874</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>5499.2000000000007</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>8248.7999999999993</v>
-      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>-5</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G38" si="4">E36*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H38" si="5">E36*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
+++ b/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905B74E-BE24-412D-8B92-080FEDA9818B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D7A9F9-82CD-4903-B587-93F32032E4FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="656" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="9" r:id="rId1"/>
-    <sheet name="all" sheetId="10" r:id="rId2"/>
+    <sheet name="default" sheetId="10" r:id="rId2"/>
+    <sheet name="biomass" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="109">
   <si>
     <t>Ref.</t>
   </si>
@@ -317,7 +318,37 @@
     <t>CostFixed</t>
   </si>
   <si>
-    <t>Fuel cost uncertainty?</t>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>NATGAS</t>
+  </si>
+  <si>
+    <t>NUCLEAR</t>
+  </si>
+  <si>
+    <t>+/- 1%</t>
+  </si>
+  <si>
+    <t>[M$/PJ]</t>
+  </si>
+  <si>
+    <t>CostVariableIncr</t>
+  </si>
+  <si>
+    <t>MaxActivity</t>
+  </si>
+  <si>
+    <t>[PJ]</t>
   </si>
 </sst>
 </file>
@@ -350,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,13 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,9 +438,11 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1602,9 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2DE492-BD1A-44A2-AB64-20C476A17F08}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A43"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1676,7 +1701,7 @@
         <v>2968.7999999999997</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1708,7 +1733,7 @@
         <v>1748.3999999999999</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1740,27 +1765,27 @@
         <v>8248.7999999999993</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="15">
         <v>-1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="13">
@@ -1769,56 +1794,58 @@
       <c r="H5" s="13">
         <v>0</v>
       </c>
+      <c r="I5" s="15"/>
       <c r="J5" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="15">
         <v>-1.97</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="15">
         <v>-4.2699999999999996</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="15">
         <v>-0.61</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="15">
         <v>-0.53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="13">
@@ -1827,27 +1854,28 @@
       <c r="H7" s="13">
         <v>0</v>
       </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="15">
         <v>-0.63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="13">
@@ -1856,27 +1884,28 @@
       <c r="H8" s="13">
         <v>0</v>
       </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="15">
         <v>-0.4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="13">
@@ -1885,27 +1914,28 @@
       <c r="H9" s="13">
         <v>0</v>
       </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="15">
         <v>-0.4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="13">
@@ -1914,27 +1944,28 @@
       <c r="H10" s="13">
         <v>0</v>
       </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="15">
         <v>-0.41</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="13">
@@ -1943,79 +1974,82 @@
       <c r="H11" s="13">
         <v>0</v>
       </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="15">
         <v>-1.86</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="15">
         <v>-3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="15">
         <v>-1.08</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="15">
         <v>-1.7</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15">
         <v>-2.88</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E14" s="15">
@@ -2030,111 +2064,118 @@
       <c r="H14" s="15">
         <v>-0.61</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="15">
         <v>-2.23</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="F15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="15">
         <v>-3.45</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="15">
         <v>-1.17</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="15">
         <v>-2.14</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="F16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="15">
         <v>-3.42</v>
       </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="15">
         <v>-3.15</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="15">
         <v>-4.5599999999999996</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="15">
         <v>-2.06</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="15">
         <v>-0.89</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="13">
@@ -2143,27 +2184,28 @@
       <c r="H18" s="13">
         <v>0</v>
       </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="15">
         <v>-1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="13">
@@ -2172,6 +2214,7 @@
       <c r="H19" s="13">
         <v>0</v>
       </c>
+      <c r="I19" s="15"/>
       <c r="J19" s="16" t="s">
         <v>91</v>
       </c>
@@ -2183,16 +2226,16 @@
       <c r="B20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="17">
         <v>-0.81</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="13">
@@ -2201,6 +2244,7 @@
       <c r="H20" s="13">
         <v>0</v>
       </c>
+      <c r="I20" s="15"/>
       <c r="J20" s="16" t="s">
         <v>91</v>
       </c>
@@ -2212,23 +2256,27 @@
       <c r="B21" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1">
+        <v>27</v>
+      </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="13">
         <f t="shared" ref="G21:G23" si="2">E21*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="H21">
+        <v>21.6</v>
+      </c>
+      <c r="H21" s="13">
         <f t="shared" ref="H21:H23" si="3">E21*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="16" t="s">
+        <v>32.4</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2239,23 +2287,27 @@
       <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1">
+        <v>16.3</v>
+      </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22">
+        <v>13.040000000000001</v>
+      </c>
+      <c r="H22" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="16" t="s">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2266,363 +2318,388 @@
       <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1">
+        <v>180.4</v>
+      </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
+        <v>144.32000000000002</v>
+      </c>
+      <c r="H23" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="16" t="s">
+        <v>216.48</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="15">
         <v>-1.86</v>
       </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="15">
         <v>-3</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="15">
         <v>-1.08</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="15">
         <v>-1.88</v>
       </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="15">
         <v>-3.25</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="15">
         <v>-1.97</v>
       </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="15">
         <v>-4.2699999999999996</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="15">
         <v>-0.61</v>
       </c>
-      <c r="J26" t="s">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="15">
         <v>-1.86</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="15">
         <v>-3</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="15">
         <v>-1.08</v>
       </c>
-      <c r="J27" t="s">
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="15">
         <v>-1.88</v>
       </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="15">
         <v>-3.25</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="15">
         <v>-1.97</v>
       </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="15">
         <v>-4.2699999999999996</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="15">
         <v>-0.61</v>
       </c>
-      <c r="J29" t="s">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="15">
         <v>-2.23</v>
       </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="15">
         <v>-3.45</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="15">
         <v>-1.17</v>
       </c>
-      <c r="J30" t="s">
+      <c r="I30" s="15"/>
+      <c r="J30" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="15">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="15">
         <v>-3.39</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="15">
         <v>-3.15</v>
       </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="15">
         <v>-4.5599999999999996</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="15">
         <v>-2.06</v>
       </c>
-      <c r="J32" t="s">
+      <c r="I32" s="15"/>
+      <c r="J32" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33">
+      <c r="D33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="13">
         <v>-5</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15"/>
       <c r="J33" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34">
+      <c r="D34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="13">
         <v>-5</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15"/>
       <c r="J34" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35">
+      <c r="D35" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="13">
         <v>-5</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15"/>
       <c r="J35" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2632,23 +2709,27 @@
       <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.59</v>
+      </c>
       <c r="F36" t="s">
         <v>8</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="13">
         <f t="shared" ref="G36:G38" si="4">E36*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="H36">
+        <v>1.2720000000000002</v>
+      </c>
+      <c r="H36" s="13">
         <f t="shared" ref="H36:H38" si="5">E36*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16" t="s">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="J36" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2659,23 +2740,27 @@
       <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.57</v>
+      </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H37">
+        <v>2.056</v>
+      </c>
+      <c r="H37" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="16" t="s">
+        <v>3.0839999999999996</v>
+      </c>
+      <c r="J37" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2686,42 +2771,1532 @@
       <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.2</v>
+      </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H38">
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="H38" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="16" t="s">
+        <v>3.84</v>
+      </c>
+      <c r="J38" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="B39" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
+        <v>3</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="15">
+        <v>2</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
+        <v>3</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="A42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>2</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="A43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F9DF2A-4D9C-45A5-87BB-AF98F5BFA577}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>2474</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G4" si="0">E2*0.8</f>
+        <v>1979.2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H4" si="1">E2*1.2</f>
+        <v>2968.7999999999997</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>1457</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1165.6000000000001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>1748.3999999999999</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6874</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5499.2000000000007</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>8248.7999999999993</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13">
+        <v>-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="15">
+        <v>-1.97</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="H6" s="15">
+        <v>-0.61</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="15">
+        <v>-0.53</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="15">
+        <v>-0.63</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="15">
+        <v>-0.41</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-1.86</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>-1.08</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="15">
+        <v>-1.7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-2.88</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="15">
+        <v>-1.97</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="H14" s="15">
+        <v>-0.61</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="15">
+        <v>-2.23</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="15">
+        <v>-3.45</v>
+      </c>
+      <c r="H15" s="15">
+        <v>-1.17</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="15">
+        <v>-2.14</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-3.42</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="15">
+        <v>-3.15</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="15">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="H17" s="15">
+        <v>-2.06</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-0.89</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="17">
+        <v>-0.81</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" ref="G21:G23" si="2">E21*0.8</f>
+        <v>21.6</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" ref="H21:H23" si="3">E21*1.2</f>
+        <v>32.4</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="2"/>
+        <v>13.040000000000001</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="3"/>
+        <v>19.559999999999999</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1">
+        <v>180.4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="2"/>
+        <v>144.32000000000002</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="3"/>
+        <v>216.48</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-1.86</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-1.08</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="15">
+        <v>-1.88</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="15">
+        <v>-3.25</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-1.97</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="H26" s="15">
+        <v>-0.61</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="15">
+        <v>-1.86</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H27" s="15">
+        <v>-1.08</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="15">
+        <v>-1.88</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="15">
+        <v>-3.25</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-1.97</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="15">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-0.61</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-2.23</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="15">
+        <v>-3.45</v>
+      </c>
+      <c r="H30" s="15">
+        <v>-1.17</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="15">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="15">
+        <v>-3.39</v>
+      </c>
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="15">
+        <v>-3.15</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="15">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="H32" s="15">
+        <v>-2.06</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="13">
+        <v>-5</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" ref="G36:G38" si="4">E36*0.8</f>
+        <v>1.2720000000000002</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" ref="H36:H38" si="5">E36*1.2</f>
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="4"/>
+        <v>2.056</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="5"/>
+        <v>3.0839999999999996</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="4"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="5"/>
+        <v>3.84</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
+        <v>3</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="15">
+        <v>2</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
+        <v>3</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>2</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42.906500000000001</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <f>E44</f>
+        <v>42.906500000000001</v>
+      </c>
+      <c r="H44">
+        <f>E44*10</f>
+        <v>429.065</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
+++ b/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E671FB-09A6-4C7E-8873-89060A02406B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF62210-6D10-41C5-9A81-C41CE61187C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="86">
   <si>
     <t>Ref.</t>
   </si>
@@ -255,9 +255,6 @@
     <t>EC_VFB</t>
   </si>
   <si>
-    <t>Lower: Li et al, Upper: Beuse et al.</t>
-  </si>
-  <si>
     <t>Lower: Bennett et al., Upper: Mouli-Castillo</t>
   </si>
   <si>
@@ -274,6 +271,15 @@
   </si>
   <si>
     <t>[PJ]</t>
+  </si>
+  <si>
+    <t>Lower: Li et al 10 hr, Upper: Beuse et al.</t>
+  </si>
+  <si>
+    <t>Keith et al. early plant and Nth plant</t>
+  </si>
+  <si>
+    <t>NETL Vol 2 &amp; NREL ATB calc</t>
   </si>
 </sst>
 </file>
@@ -335,13 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,12 +384,15 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1571,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C088720-46C9-4463-BD2A-99BFD76A219D}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1630,21 +1639,21 @@
       <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="22">
         <v>6874</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>4000</v>
-      </c>
-      <c r="H2">
-        <v>8000</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="19" t="s">
-        <v>79</v>
+      <c r="G2" s="19">
+        <v>4781</v>
+      </c>
+      <c r="H2" s="19">
+        <v>6782.73</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1660,21 +1669,21 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="13">
-        <v>2560</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="19">
+        <v>2562</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13">
-        <v>500</v>
-      </c>
-      <c r="H3" s="13">
-        <v>5000</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19" t="s">
-        <v>79</v>
+      <c r="G3" s="19">
+        <v>2562</v>
+      </c>
+      <c r="H3" s="19">
+        <v>3704</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1693,18 +1702,18 @@
       <c r="E4" s="13">
         <v>5821.55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>3000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="13">
         <v>8000</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="19" t="s">
-        <v>79</v>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1720,21 +1729,21 @@
       <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>1457</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>1457</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>9191</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
-        <v>78</v>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1750,35 +1759,35 @@
       <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>4317</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="15">
-        <v>892</v>
-      </c>
-      <c r="H6" s="15">
-        <v>4317</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
-        <v>77</v>
+      <c r="G6" s="14">
+        <v>1820</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3781</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
       </c>
       <c r="E7">
         <v>42.906500000000001</v>
@@ -1796,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F9DF2A-4D9C-45A5-87BB-AF98F5BFA577}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1855,21 +1864,21 @@
       <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="22">
         <v>6874</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>4000</v>
-      </c>
-      <c r="H2">
-        <v>8000</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="19" t="s">
-        <v>79</v>
+      <c r="G2" s="19">
+        <v>4781</v>
+      </c>
+      <c r="H2" s="19">
+        <v>6782.73</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1885,21 +1894,21 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="13">
-        <v>2560</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="19">
+        <v>2562</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13">
-        <v>500</v>
-      </c>
-      <c r="H3" s="13">
-        <v>5000</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19" t="s">
-        <v>79</v>
+      <c r="G3" s="19">
+        <v>2562</v>
+      </c>
+      <c r="H3" s="19">
+        <v>3704</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1918,18 +1927,18 @@
       <c r="E4" s="13">
         <v>5821.55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>3000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="13">
         <v>8000</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="19" t="s">
-        <v>79</v>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1945,21 +1954,21 @@
       <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>1457</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>1457</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>9191</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
-        <v>78</v>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1975,38 +1984,39 @@
       <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>4317</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="15">
-        <v>892</v>
-      </c>
-      <c r="H6" s="15">
-        <v>4317</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
-        <v>77</v>
+      <c r="G6" s="14">
+        <v>1820</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3781</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
       <c r="E7">
-        <v>429.065</v>
+        <f>42.9065*2</f>
+        <v>85.813000000000002</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>

--- a/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
+++ b/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF62210-6D10-41C5-9A81-C41CE61187C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F6319-5FE7-436A-A1EB-F068F66E468C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <t>Keith et al. early plant and Nth plant</t>
   </si>
   <si>
-    <t>NETL Vol 2 &amp; NREL ATB calc</t>
+    <t>NETL Vol 2 &amp; Fajardy et al.</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,7 +1649,7 @@
         <v>4781</v>
       </c>
       <c r="H2" s="19">
-        <v>6782.73</v>
+        <v>11714</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="21" t="s">
@@ -1806,7 +1806,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:J6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1874,7 @@
         <v>4781</v>
       </c>
       <c r="H2" s="19">
-        <v>6782.73</v>
+        <v>1174</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="21" t="s">

--- a/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
+++ b/projects/va_emerging_tech/data/monte_carlo_inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F6319-5FE7-436A-A1EB-F068F66E468C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA914A93-967D-4A0C-819C-D1255926557E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Ref.</t>
   </si>
@@ -249,16 +249,10 @@
     <t>EC_DAC</t>
   </si>
   <si>
-    <t>EC_H2</t>
-  </si>
-  <si>
     <t>EC_VFB</t>
   </si>
   <si>
     <t>Lower: Bennett et al., Upper: Mouli-Castillo</t>
-  </si>
-  <si>
-    <t>Assumed</t>
   </si>
   <si>
     <t>Fuels</t>
@@ -320,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,12 +324,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,15 +372,12 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1578,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C088720-46C9-4463-BD2A-99BFD76A219D}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,21 +1624,21 @@
       <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>6874</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="16">
         <v>4781</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="16">
         <v>11714</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
-        <v>85</v>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1669,21 +1654,21 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>2562</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="16">
         <v>2562</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="16">
         <v>3704</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21" t="s">
-        <v>84</v>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1694,26 +1679,26 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="13">
-        <v>5821.55</v>
+        <v>1457</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="13">
-        <v>3000</v>
+        <v>1457</v>
       </c>
       <c r="H4" s="13">
-        <v>8000</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18" t="s">
-        <v>78</v>
+        <v>9191</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1724,75 +1709,45 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14">
-        <v>1457</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="13">
+        <v>4317</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14">
-        <v>1457</v>
-      </c>
-      <c r="H5" s="14">
-        <v>9191</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
-        <v>77</v>
+      <c r="G5" s="13">
+        <v>1820</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3781</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4317</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1820</v>
-      </c>
-      <c r="H6" s="14">
-        <v>3781</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7">
+      <c r="E6">
         <v>42.906500000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1803,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F9DF2A-4D9C-45A5-87BB-AF98F5BFA577}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,21 +1819,21 @@
       <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>6874</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="16">
         <v>4781</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="16">
         <v>1174</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
-        <v>85</v>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1894,21 +1849,21 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>2562</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="16">
         <v>2562</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="16">
         <v>3704</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21" t="s">
-        <v>84</v>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1919,26 +1874,26 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="13">
-        <v>5821.55</v>
+        <v>1457</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="13">
-        <v>3000</v>
+        <v>1457</v>
       </c>
       <c r="H4" s="13">
-        <v>8000</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18" t="s">
-        <v>78</v>
+        <v>9191</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1949,76 +1904,46 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14">
-        <v>1457</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="13">
+        <v>4317</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14">
-        <v>1457</v>
-      </c>
-      <c r="H5" s="14">
-        <v>9191</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
-        <v>77</v>
+      <c r="G5" s="13">
+        <v>1820</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3781</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4317</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1820</v>
-      </c>
-      <c r="H6" s="14">
-        <v>3781</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7">
+      <c r="E6">
         <f>42.9065*2</f>
         <v>85.813000000000002</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
     </row>
